--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Col5a1-Sdc3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.115714333333333</v>
+        <v>2.415243666666667</v>
       </c>
       <c r="H2">
-        <v>9.347142999999999</v>
+        <v>7.245730999999999</v>
       </c>
       <c r="I2">
-        <v>0.008526392243866433</v>
+        <v>0.006221624451646611</v>
       </c>
       <c r="J2">
-        <v>0.008526392243866435</v>
+        <v>0.006221624451646612</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N2">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P2">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q2">
-        <v>107.0584007147994</v>
+        <v>68.38627752078189</v>
       </c>
       <c r="R2">
-        <v>963.5256064331949</v>
+        <v>615.4764976870371</v>
       </c>
       <c r="S2">
-        <v>0.002429192191916473</v>
+        <v>0.001709187881006278</v>
       </c>
       <c r="T2">
-        <v>0.002429192191916474</v>
+        <v>0.001709187881006278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.115714333333333</v>
+        <v>2.415243666666667</v>
       </c>
       <c r="H3">
-        <v>9.347142999999999</v>
+        <v>7.245730999999999</v>
       </c>
       <c r="I3">
-        <v>0.008526392243866433</v>
+        <v>0.006221624451646611</v>
       </c>
       <c r="J3">
-        <v>0.008526392243866435</v>
+        <v>0.006221624451646612</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>64.633847</v>
       </c>
       <c r="O3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P3">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q3">
-        <v>67.12686783879123</v>
+        <v>52.03549653968411</v>
       </c>
       <c r="R3">
-        <v>604.1418105491209</v>
+        <v>468.3194688571569</v>
       </c>
       <c r="S3">
-        <v>0.001523131880665757</v>
+        <v>0.001300530505418206</v>
       </c>
       <c r="T3">
-        <v>0.001523131880665757</v>
+        <v>0.001300530505418206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.115714333333333</v>
+        <v>2.415243666666667</v>
       </c>
       <c r="H4">
-        <v>9.347142999999999</v>
+        <v>7.245730999999999</v>
       </c>
       <c r="I4">
-        <v>0.008526392243866433</v>
+        <v>0.006221624451646611</v>
       </c>
       <c r="J4">
-        <v>0.008526392243866435</v>
+        <v>0.006221624451646612</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N4">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O4">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P4">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q4">
-        <v>14.54587126659766</v>
+        <v>13.07484752202756</v>
       </c>
       <c r="R4">
-        <v>130.912841399379</v>
+        <v>117.673627698248</v>
       </c>
       <c r="S4">
-        <v>0.0003300508570044113</v>
+        <v>0.0003267815085250594</v>
       </c>
       <c r="T4">
-        <v>0.0003300508570044114</v>
+        <v>0.0003267815085250594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.115714333333333</v>
+        <v>2.415243666666667</v>
       </c>
       <c r="H5">
-        <v>9.347142999999999</v>
+        <v>7.245730999999999</v>
       </c>
       <c r="I5">
-        <v>0.008526392243866433</v>
+        <v>0.006221624451646611</v>
       </c>
       <c r="J5">
-        <v>0.008526392243866435</v>
+        <v>0.006221624451646612</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N5">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O5">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P5">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q5">
-        <v>187.0406581186375</v>
+        <v>115.436653166618</v>
       </c>
       <c r="R5">
-        <v>1683.365923067738</v>
+        <v>1038.929878499562</v>
       </c>
       <c r="S5">
-        <v>0.004244017314279792</v>
+        <v>0.002885124556697068</v>
       </c>
       <c r="T5">
-        <v>0.004244017314279793</v>
+        <v>0.002885124556697068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1040.344055</v>
       </c>
       <c r="I6">
-        <v>0.9489938777554333</v>
+        <v>0.8933025543886721</v>
       </c>
       <c r="J6">
-        <v>0.9489938777554335</v>
+        <v>0.8933025543886722</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N6">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P6">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q6">
-        <v>11915.68062256556</v>
+        <v>9818.920584041221</v>
       </c>
       <c r="R6">
-        <v>107241.1256030901</v>
+        <v>88370.285256371</v>
       </c>
       <c r="S6">
-        <v>0.2703709203242876</v>
+        <v>0.2454056672657222</v>
       </c>
       <c r="T6">
-        <v>0.2703709203242877</v>
+        <v>0.2454056672657223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1040.344055</v>
       </c>
       <c r="I7">
-        <v>0.9489938777554333</v>
+        <v>0.8933025543886721</v>
       </c>
       <c r="J7">
-        <v>0.9489938777554335</v>
+        <v>0.8933025543886722</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>64.633847</v>
       </c>
       <c r="O7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P7">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q7">
         <v>7471.270942025511</v>
@@ -883,10 +883,10 @@
         <v>67241.4384782296</v>
       </c>
       <c r="S7">
-        <v>0.1695257253506863</v>
+        <v>0.1867305285909698</v>
       </c>
       <c r="T7">
-        <v>0.1695257253506863</v>
+        <v>0.1867305285909699</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1040.344055</v>
       </c>
       <c r="I8">
-        <v>0.9489938777554333</v>
+        <v>0.8933025543886721</v>
       </c>
       <c r="J8">
-        <v>0.9489938777554335</v>
+        <v>0.8933025543886722</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N8">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O8">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P8">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q8">
-        <v>1618.966426104769</v>
+        <v>1877.290212619383</v>
       </c>
       <c r="R8">
-        <v>14570.69783494292</v>
+        <v>16895.61191357444</v>
       </c>
       <c r="S8">
-        <v>0.03673490893765018</v>
+        <v>0.04691937910446543</v>
       </c>
       <c r="T8">
-        <v>0.0367349089376502</v>
+        <v>0.04691937910446543</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1040.344055</v>
       </c>
       <c r="I9">
-        <v>0.9489938777554333</v>
+        <v>0.8933025543886721</v>
       </c>
       <c r="J9">
-        <v>0.9489938777554335</v>
+        <v>0.8933025543886722</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N9">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O9">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P9">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q9">
-        <v>20817.76610425368</v>
+        <v>16574.42649347429</v>
       </c>
       <c r="R9">
-        <v>187359.8949382831</v>
+        <v>149169.8384412686</v>
       </c>
       <c r="S9">
-        <v>0.4723623231428093</v>
+        <v>0.4142469794275146</v>
       </c>
       <c r="T9">
-        <v>0.4723623231428095</v>
+        <v>0.4142469794275147</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.28030233333333</v>
+        <v>38.75388733333333</v>
       </c>
       <c r="H10">
-        <v>45.84090699999999</v>
+        <v>116.261662</v>
       </c>
       <c r="I10">
-        <v>0.04181572421611635</v>
+        <v>0.09982932006284441</v>
       </c>
       <c r="J10">
-        <v>0.04181572421611636</v>
+        <v>0.09982932006284444</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N10">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P10">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q10">
-        <v>525.0432341450061</v>
+        <v>1097.294708092164</v>
       </c>
       <c r="R10">
-        <v>4725.389107305054</v>
+        <v>9875.652372829476</v>
       </c>
       <c r="S10">
-        <v>0.01191341283157529</v>
+        <v>0.02742484142953252</v>
       </c>
       <c r="T10">
-        <v>0.0119134128315753</v>
+        <v>0.02742484142953253</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>15.28030233333333</v>
+        <v>38.75388733333333</v>
       </c>
       <c r="H11">
-        <v>45.84090699999999</v>
+        <v>116.261662</v>
       </c>
       <c r="I11">
-        <v>0.04181572421611635</v>
+        <v>0.09982932006284441</v>
       </c>
       <c r="J11">
-        <v>0.04181572421611636</v>
+        <v>0.09982932006284444</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>64.633847</v>
       </c>
       <c r="O11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P11">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q11">
-        <v>329.2082410421365</v>
+        <v>834.9376081859683</v>
       </c>
       <c r="R11">
-        <v>2962.874169379229</v>
+        <v>7514.438473673715</v>
       </c>
       <c r="S11">
-        <v>0.007469849010583667</v>
+        <v>0.02086771342209926</v>
       </c>
       <c r="T11">
-        <v>0.007469849010583669</v>
+        <v>0.02086771342209926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>15.28030233333333</v>
+        <v>38.75388733333333</v>
       </c>
       <c r="H12">
-        <v>45.84090699999999</v>
+        <v>116.261662</v>
       </c>
       <c r="I12">
-        <v>0.04181572421611635</v>
+        <v>0.09982932006284441</v>
       </c>
       <c r="J12">
-        <v>0.04181572421611636</v>
+        <v>0.09982932006284444</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N12">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O12">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P12">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q12">
-        <v>71.33687073858566</v>
+        <v>209.7929806264551</v>
       </c>
       <c r="R12">
-        <v>642.0318366472709</v>
+        <v>1888.136825638096</v>
       </c>
       <c r="S12">
-        <v>0.001618658304597406</v>
+        <v>0.005243385559302515</v>
       </c>
       <c r="T12">
-        <v>0.001618658304597407</v>
+        <v>0.005243385559302517</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>15.28030233333333</v>
+        <v>38.75388733333333</v>
       </c>
       <c r="H13">
-        <v>45.84090699999999</v>
+        <v>116.261662</v>
       </c>
       <c r="I13">
-        <v>0.04181572421611635</v>
+        <v>0.09982932006284441</v>
       </c>
       <c r="J13">
-        <v>0.04181572421611636</v>
+        <v>0.09982932006284444</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N13">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O13">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P13">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q13">
-        <v>917.2977683165068</v>
+        <v>1852.243362728836</v>
       </c>
       <c r="R13">
-        <v>8255.679914848561</v>
+        <v>16670.19026455953</v>
       </c>
       <c r="S13">
-        <v>0.02081380406935998</v>
+        <v>0.04629337965191011</v>
       </c>
       <c r="T13">
-        <v>0.02081380406935999</v>
+        <v>0.04629337965191013</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.242641</v>
+        <v>0.2509726666666667</v>
       </c>
       <c r="H14">
-        <v>0.727923</v>
+        <v>0.752918</v>
       </c>
       <c r="I14">
-        <v>0.0006640057845838012</v>
+        <v>0.0006465010968368635</v>
       </c>
       <c r="J14">
-        <v>0.0006640057845838013</v>
+        <v>0.0006465010968368636</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>34.36078833333333</v>
+        <v>28.31444233333334</v>
       </c>
       <c r="N14">
-        <v>103.082365</v>
+        <v>84.94332700000001</v>
       </c>
       <c r="O14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="P14">
-        <v>0.28490270239021</v>
+        <v>0.2747173016130739</v>
       </c>
       <c r="Q14">
-        <v>8.337336041988333</v>
+        <v>7.106151097576223</v>
       </c>
       <c r="R14">
-        <v>75.03602437789499</v>
+        <v>63.95535987818601</v>
       </c>
       <c r="S14">
-        <v>0.0001891770424306566</v>
+        <v>0.0001776050368129158</v>
       </c>
       <c r="T14">
-        <v>0.0001891770424306567</v>
+        <v>0.0001776050368129158</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.242641</v>
+        <v>0.2509726666666667</v>
       </c>
       <c r="H15">
-        <v>0.727923</v>
+        <v>0.752918</v>
       </c>
       <c r="I15">
-        <v>0.0006640057845838012</v>
+        <v>0.0006465010968368635</v>
       </c>
       <c r="J15">
-        <v>0.0006640057845838013</v>
+        <v>0.0006465010968368636</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>64.633847</v>
       </c>
       <c r="O15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="P15">
-        <v>0.17863732245739</v>
+        <v>0.2090339131726295</v>
       </c>
       <c r="Q15">
-        <v>5.227607089975667</v>
+        <v>5.407109646171778</v>
       </c>
       <c r="R15">
-        <v>47.048463809781</v>
+        <v>48.663986815546</v>
       </c>
       <c r="S15">
-        <v>0.0001186162154542687</v>
+        <v>0.0001351406541422067</v>
       </c>
       <c r="T15">
-        <v>0.0001186162154542687</v>
+        <v>0.0001351406541422067</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.242641</v>
+        <v>0.2509726666666667</v>
       </c>
       <c r="H16">
-        <v>0.727923</v>
+        <v>0.752918</v>
       </c>
       <c r="I16">
-        <v>0.0006640057845838012</v>
+        <v>0.0006465010968368635</v>
       </c>
       <c r="J16">
-        <v>0.0006640057845838013</v>
+        <v>0.0006465010968368636</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.668551</v>
+        <v>5.413469333333334</v>
       </c>
       <c r="N16">
-        <v>14.005653</v>
+        <v>16.240408</v>
       </c>
       <c r="O16">
-        <v>0.03870932131252083</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="P16">
-        <v>0.03870932131252085</v>
+        <v>0.0525235026743817</v>
       </c>
       <c r="Q16">
-        <v>1.132781883191</v>
+        <v>1.358632834504889</v>
       </c>
       <c r="R16">
-        <v>10.195036948719</v>
+        <v>12.227695510544</v>
       </c>
       <c r="S16">
-        <v>2.570321326882686E-05</v>
+        <v>3.39565020887017E-05</v>
       </c>
       <c r="T16">
-        <v>2.570321326882687E-05</v>
+        <v>3.395650208870171E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.242641</v>
+        <v>0.2509726666666667</v>
       </c>
       <c r="H17">
-        <v>0.727923</v>
+        <v>0.752918</v>
       </c>
       <c r="I17">
-        <v>0.0006640057845838012</v>
+        <v>0.0006465010968368635</v>
       </c>
       <c r="J17">
-        <v>0.0006640057845838013</v>
+        <v>0.0006465010968368636</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.03138866666666</v>
+        <v>47.79503400000001</v>
       </c>
       <c r="N17">
-        <v>180.094166</v>
+        <v>143.385102</v>
       </c>
       <c r="O17">
-        <v>0.4977506538398792</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="P17">
-        <v>0.4977506538398793</v>
+        <v>0.4637252825399149</v>
       </c>
       <c r="Q17">
-        <v>14.56607617746867</v>
+        <v>11.995247136404</v>
       </c>
       <c r="R17">
-        <v>131.094685597218</v>
+        <v>107.957224227636</v>
       </c>
       <c r="S17">
-        <v>0.000330509313430049</v>
+        <v>0.0002997989037930394</v>
       </c>
       <c r="T17">
-        <v>0.0003305093134300491</v>
+        <v>0.0002997989037930394</v>
       </c>
     </row>
   </sheetData>
